--- a/src/test/resources/TestData/batch14excel.xlsx
+++ b/src/test/resources/TestData/batch14excel.xlsx
@@ -42,9 +42,6 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>vani323</t>
-  </si>
-  <si>
     <t>ms</t>
   </si>
   <si>
@@ -66,12 +63,6 @@
     <t>Swift</t>
   </si>
   <si>
-    <t>Natathecat</t>
-  </si>
-  <si>
-    <t>TaloyS</t>
-  </si>
-  <si>
     <t>Hamilton</t>
   </si>
   <si>
@@ -81,7 +72,16 @@
     <t>thecow</t>
   </si>
   <si>
-    <t>Leodal</t>
+    <t>vani3231</t>
+  </si>
+  <si>
+    <t>Leodal1</t>
+  </si>
+  <si>
+    <t>Natathecat1</t>
+  </si>
+  <si>
+    <t>TaloyS1</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -453,71 +453,71 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
